--- a/doc/table/篇章表.xlsx
+++ b/doc/table/篇章表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,10 +513,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="D3">
-        <v>10004</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="D4">
-        <v>10005</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -541,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="D5">
-        <v>10006</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -555,10 +555,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="D6">
-        <v>10007</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -569,10 +569,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="D7">
-        <v>10008</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="D8">
-        <v>10009</v>
+        <v>10007</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -597,10 +597,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="D9">
-        <v>10010</v>
+        <v>10008</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -611,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="D10">
-        <v>10011</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -625,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="D11">
-        <v>10011</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="D13">
-        <v>10011</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -667,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>10011</v>
+        <v>10013</v>
       </c>
       <c r="D14">
-        <v>10011</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -681,10 +681,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="D15">
-        <v>10011</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
